--- a/exports/performance_run_1000.xlsx
+++ b/exports/performance_run_1000.xlsx
@@ -490,13 +490,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.078</v>
       </c>
       <c r="E2" t="n">
-        <v>0.099</v>
+        <v>0.08</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.078</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -520,13 +520,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.045</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.08699999999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.055</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.472</v>
+        <v>0.482</v>
       </c>
       <c r="E5" t="n">
-        <v>0.569</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.484</v>
+        <v>0.488</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -610,19 +610,19 @@
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.076</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.081</v>
+        <v>0.103</v>
       </c>
       <c r="F6" t="n">
-        <v>0.077</v>
+        <v>0.082</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>588</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7">
@@ -640,13 +640,13 @@
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.216</v>
+        <v>0.218</v>
       </c>
       <c r="E7" t="n">
-        <v>0.24</v>
+        <v>0.245</v>
       </c>
       <c r="F7" t="n">
-        <v>0.222</v>
+        <v>0.225</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>1.066</v>
+        <v>0.61</v>
       </c>
       <c r="E8" t="n">
-        <v>1.653</v>
+        <v>0.678</v>
       </c>
       <c r="F8" t="n">
-        <v>1.194</v>
+        <v>0.617</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -700,13 +700,13 @@
         <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>0.521</v>
+        <v>0.372</v>
       </c>
       <c r="E9" t="n">
-        <v>0.74</v>
+        <v>0.411</v>
       </c>
       <c r="F9" t="n">
-        <v>0.536</v>
+        <v>0.384</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>0.452</v>
+        <v>0.402</v>
       </c>
       <c r="E10" t="n">
-        <v>0.67</v>
+        <v>0.443</v>
       </c>
       <c r="F10" t="n">
-        <v>0.487</v>
+        <v>0.412</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -760,13 +760,13 @@
         <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>0.57</v>
+        <v>0.636</v>
       </c>
       <c r="E11" t="n">
-        <v>0.588</v>
+        <v>0.664</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.624</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>0.328</v>
+        <v>0.31</v>
       </c>
       <c r="E12" t="n">
-        <v>0.359</v>
+        <v>0.37</v>
       </c>
       <c r="F12" t="n">
-        <v>0.334</v>
+        <v>0.326</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>0.273</v>
+        <v>0.276</v>
       </c>
       <c r="E13" t="n">
-        <v>0.276</v>
+        <v>0.356</v>
       </c>
       <c r="F13" t="n">
-        <v>0.273</v>
+        <v>0.293</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>0.216</v>
+        <v>0.223</v>
       </c>
       <c r="E14" t="n">
-        <v>0.236</v>
+        <v>0.343</v>
       </c>
       <c r="F14" t="n">
-        <v>0.22</v>
+        <v>0.251</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>0.777</v>
+        <v>0.779</v>
       </c>
       <c r="E15" t="n">
-        <v>0.794</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>0.78</v>
+        <v>0.783</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>0.727</v>
+        <v>0.698</v>
       </c>
       <c r="E16" t="n">
-        <v>0.746</v>
+        <v>0.721</v>
       </c>
       <c r="F16" t="n">
-        <v>0.725</v>
+        <v>0.703</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>0.372</v>
+        <v>0.406</v>
       </c>
       <c r="E17" t="n">
-        <v>0.396</v>
+        <v>0.426</v>
       </c>
       <c r="F17" t="n">
-        <v>0.378</v>
+        <v>0.401</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -970,13 +970,13 @@
         <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>0.802</v>
+        <v>0.581</v>
       </c>
       <c r="E18" t="n">
-        <v>0.95</v>
+        <v>0.619</v>
       </c>
       <c r="F18" t="n">
-        <v>0.777</v>
+        <v>0.583</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>0.403</v>
+        <v>0.366</v>
       </c>
       <c r="E19" t="n">
-        <v>0.454</v>
+        <v>0.423</v>
       </c>
       <c r="F19" t="n">
-        <v>0.412</v>
+        <v>0.38</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1030,13 +1030,13 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>0.466</v>
+        <v>0.412</v>
       </c>
       <c r="E20" t="n">
-        <v>0.525</v>
+        <v>0.468</v>
       </c>
       <c r="F20" t="n">
-        <v>0.461</v>
+        <v>0.426</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>0.702</v>
+        <v>0.711</v>
       </c>
       <c r="E21" t="n">
-        <v>1.038</v>
+        <v>0.75</v>
       </c>
       <c r="F21" t="n">
-        <v>0.764</v>
+        <v>0.721</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1090,13 +1090,13 @@
         <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
       <c r="E22" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="F22" t="n">
         <v>0.047</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.045</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="E23" t="n">
         <v>0.035</v>
       </c>
       <c r="F23" t="n">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0.007</v>
       </c>
       <c r="E24" t="n">
-        <v>0.011</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F24" t="n">
         <v>0.008</v>
@@ -1180,13 +1180,13 @@
         <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>0.617</v>
+        <v>0.611</v>
       </c>
       <c r="E25" t="n">
-        <v>0.681</v>
+        <v>0.699</v>
       </c>
       <c r="F25" t="n">
-        <v>0.625</v>
+        <v>0.627</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
       <c r="E26" t="n">
         <v>0.044</v>
       </c>
       <c r="F26" t="n">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>315</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27">
@@ -1240,13 +1240,13 @@
         <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>0.284</v>
+        <v>0.285</v>
       </c>
       <c r="E27" t="n">
-        <v>0.303</v>
+        <v>0.312</v>
       </c>
       <c r="F27" t="n">
-        <v>0.288</v>
+        <v>0.292</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1270,13 +1270,13 @@
         <v>7</v>
       </c>
       <c r="D28" t="n">
-        <v>0.35</v>
+        <v>0.315</v>
       </c>
       <c r="E28" t="n">
-        <v>0.485</v>
+        <v>0.335</v>
       </c>
       <c r="F28" t="n">
-        <v>0.386</v>
+        <v>0.318</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>0.043</v>
+        <v>0.041</v>
       </c>
       <c r="E29" t="n">
-        <v>0.044</v>
+        <v>0.041</v>
       </c>
       <c r="F29" t="n">
-        <v>0.043</v>
+        <v>0.04</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0.008</v>
       </c>
       <c r="E30" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
       <c r="F30" t="n">
         <v>0.008</v>
@@ -1360,13 +1360,13 @@
         <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>0.258</v>
+        <v>0.233</v>
       </c>
       <c r="E31" t="n">
-        <v>0.444</v>
+        <v>0.265</v>
       </c>
       <c r="F31" t="n">
-        <v>0.303</v>
+        <v>0.241</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1390,13 +1390,13 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>0.121</v>
+        <v>0.119</v>
       </c>
       <c r="E32" t="n">
-        <v>0.139</v>
+        <v>0.147</v>
       </c>
       <c r="F32" t="n">
-        <v>0.124</v>
+        <v>0.128</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0.217</v>
       </c>
       <c r="E33" t="n">
-        <v>0.223</v>
+        <v>0.243</v>
       </c>
       <c r="F33" t="n">
-        <v>0.218</v>
+        <v>0.225</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>0.109</v>
+        <v>0.11</v>
       </c>
       <c r="E34" t="n">
-        <v>0.145</v>
+        <v>0.15</v>
       </c>
       <c r="F34" t="n">
-        <v>0.116</v>
+        <v>0.118</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1480,13 +1480,13 @@
         <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>0.628</v>
+        <v>0.626</v>
       </c>
       <c r="E35" t="n">
-        <v>0.633</v>
+        <v>0.966</v>
       </c>
       <c r="F35" t="n">
-        <v>0.621</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1510,13 +1510,13 @@
         <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>0.127</v>
+        <v>0.126</v>
       </c>
       <c r="E36" t="n">
-        <v>0.163</v>
+        <v>0.157</v>
       </c>
       <c r="F36" t="n">
-        <v>0.139</v>
+        <v>0.134</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>0.295</v>
+        <v>0.296</v>
       </c>
       <c r="E37" t="n">
-        <v>0.321</v>
+        <v>0.336</v>
       </c>
       <c r="F37" t="n">
-        <v>0.302</v>
+        <v>0.304</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1570,13 +1570,13 @@
         <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>0.464</v>
+        <v>0.353</v>
       </c>
       <c r="E38" t="n">
-        <v>0.551</v>
+        <v>0.395</v>
       </c>
       <c r="F38" t="n">
-        <v>0.474</v>
+        <v>0.356</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1600,13 +1600,13 @@
         <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>0.202</v>
+        <v>0.195</v>
       </c>
       <c r="E39" t="n">
-        <v>0.271</v>
+        <v>0.215</v>
       </c>
       <c r="F39" t="n">
-        <v>0.229</v>
+        <v>0.199</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1630,13 +1630,13 @@
         <v>7</v>
       </c>
       <c r="D40" t="n">
-        <v>0.237</v>
+        <v>0.195</v>
       </c>
       <c r="E40" t="n">
-        <v>0.309</v>
+        <v>0.235</v>
       </c>
       <c r="F40" t="n">
-        <v>0.246</v>
+        <v>0.205</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>7</v>
       </c>
       <c r="D41" t="n">
-        <v>0.245</v>
+        <v>0.243</v>
       </c>
       <c r="E41" t="n">
-        <v>0.31</v>
+        <v>0.261</v>
       </c>
       <c r="F41" t="n">
-        <v>0.269</v>
+        <v>0.246</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>

--- a/exports/performance_run_1000.xlsx
+++ b/exports/performance_run_1000.xlsx
@@ -490,13 +490,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.078</v>
+        <v>0.077</v>
       </c>
       <c r="E2" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.08</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.078</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -520,13 +520,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="F3" t="n">
-        <v>0.045</v>
+        <v>0.062</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E4" t="n">
         <v>0.008</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.482</v>
+        <v>0.442</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.468</v>
       </c>
       <c r="F5" t="n">
-        <v>0.488</v>
+        <v>0.449</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -610,19 +610,19 @@
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.068</v>
       </c>
       <c r="E6" t="n">
-        <v>0.103</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.082</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>546</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7">
@@ -640,13 +640,13 @@
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.218</v>
+        <v>0.216</v>
       </c>
       <c r="E7" t="n">
-        <v>0.245</v>
+        <v>0.219</v>
       </c>
       <c r="F7" t="n">
-        <v>0.225</v>
+        <v>0.216</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.61</v>
+        <v>0.601</v>
       </c>
       <c r="E8" t="n">
-        <v>0.678</v>
+        <v>0.609</v>
       </c>
       <c r="F8" t="n">
-        <v>0.617</v>
+        <v>0.592</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -700,19 +700,19 @@
         <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>0.372</v>
+        <v>0.299</v>
       </c>
       <c r="E9" t="n">
-        <v>0.411</v>
+        <v>0.326</v>
       </c>
       <c r="F9" t="n">
-        <v>0.384</v>
+        <v>0.309</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>924</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="10">
@@ -730,19 +730,19 @@
         <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>0.402</v>
+        <v>0.295</v>
       </c>
       <c r="E10" t="n">
-        <v>0.443</v>
+        <v>0.327</v>
       </c>
       <c r="F10" t="n">
-        <v>0.412</v>
+        <v>0.306</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>665</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="11">
@@ -760,13 +760,13 @@
         <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>0.636</v>
+        <v>0.837</v>
       </c>
       <c r="E11" t="n">
-        <v>0.664</v>
+        <v>1.679</v>
       </c>
       <c r="F11" t="n">
-        <v>0.624</v>
+        <v>0.994</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>0.31</v>
+        <v>0.313</v>
       </c>
       <c r="E12" t="n">
-        <v>0.37</v>
+        <v>0.329</v>
       </c>
       <c r="F12" t="n">
-        <v>0.326</v>
+        <v>0.314</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>0.276</v>
+        <v>0.263</v>
       </c>
       <c r="E13" t="n">
-        <v>0.356</v>
+        <v>0.345</v>
       </c>
       <c r="F13" t="n">
-        <v>0.293</v>
+        <v>0.282</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>0.223</v>
+        <v>0.21</v>
       </c>
       <c r="E14" t="n">
-        <v>0.343</v>
+        <v>0.232</v>
       </c>
       <c r="F14" t="n">
-        <v>0.251</v>
+        <v>0.214</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>0.779</v>
+        <v>0.757</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.822</v>
       </c>
       <c r="F15" t="n">
-        <v>0.783</v>
+        <v>0.771</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>0.698</v>
+        <v>0.697</v>
       </c>
       <c r="E16" t="n">
-        <v>0.721</v>
+        <v>0.754</v>
       </c>
       <c r="F16" t="n">
-        <v>0.703</v>
+        <v>0.702</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>0.406</v>
+        <v>0.371</v>
       </c>
       <c r="E17" t="n">
-        <v>0.426</v>
+        <v>0.399</v>
       </c>
       <c r="F17" t="n">
-        <v>0.401</v>
+        <v>0.378</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -970,13 +970,13 @@
         <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>0.581</v>
+        <v>0.575</v>
       </c>
       <c r="E18" t="n">
-        <v>0.619</v>
+        <v>0.671</v>
       </c>
       <c r="F18" t="n">
-        <v>0.583</v>
+        <v>0.592</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1000,19 +1000,19 @@
         <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>0.366</v>
+        <v>0.308</v>
       </c>
       <c r="E19" t="n">
-        <v>0.423</v>
+        <v>0.341</v>
       </c>
       <c r="F19" t="n">
-        <v>0.38</v>
+        <v>0.321</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>924</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="20">
@@ -1030,19 +1030,19 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>0.412</v>
+        <v>0.307</v>
       </c>
       <c r="E20" t="n">
-        <v>0.468</v>
+        <v>0.336</v>
       </c>
       <c r="F20" t="n">
-        <v>0.426</v>
+        <v>0.316</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>665</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="21">
@@ -1060,13 +1060,13 @@
         <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>0.711</v>
+        <v>0.668</v>
       </c>
       <c r="E21" t="n">
-        <v>0.75</v>
+        <v>1.69</v>
       </c>
       <c r="F21" t="n">
-        <v>0.721</v>
+        <v>0.853</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1090,13 +1090,13 @@
         <v>7</v>
       </c>
       <c r="D22" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.044</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.063</v>
-      </c>
       <c r="F22" t="n">
-        <v>0.047</v>
+        <v>0.043</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0.033</v>
       </c>
       <c r="E23" t="n">
-        <v>0.035</v>
+        <v>0.036</v>
       </c>
       <c r="F23" t="n">
-        <v>0.033</v>
+        <v>0.034</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0.007</v>
       </c>
       <c r="E24" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="F24" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>0.611</v>
+        <v>0.619</v>
       </c>
       <c r="E25" t="n">
-        <v>0.699</v>
+        <v>0.634</v>
       </c>
       <c r="F25" t="n">
-        <v>0.627</v>
+        <v>0.613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>0.042</v>
       </c>
       <c r="E26" t="n">
-        <v>0.044</v>
+        <v>0.047</v>
       </c>
       <c r="F26" t="n">
-        <v>0.042</v>
+        <v>0.043</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27">
@@ -1240,13 +1240,13 @@
         <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>0.285</v>
+        <v>0.286</v>
       </c>
       <c r="E27" t="n">
-        <v>0.312</v>
+        <v>0.343</v>
       </c>
       <c r="F27" t="n">
-        <v>0.292</v>
+        <v>0.299</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1270,13 +1270,13 @@
         <v>7</v>
       </c>
       <c r="D28" t="n">
-        <v>0.315</v>
+        <v>0.316</v>
       </c>
       <c r="E28" t="n">
-        <v>0.335</v>
+        <v>0.344</v>
       </c>
       <c r="F28" t="n">
-        <v>0.318</v>
+        <v>0.325</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>0.041</v>
+        <v>0.033</v>
       </c>
       <c r="E29" t="n">
-        <v>0.041</v>
+        <v>0.036</v>
       </c>
       <c r="F29" t="n">
-        <v>0.04</v>
+        <v>0.034</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E30" t="n">
-        <v>0.012</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1360,13 +1360,13 @@
         <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>0.233</v>
+        <v>0.241</v>
       </c>
       <c r="E31" t="n">
-        <v>0.265</v>
+        <v>0.272</v>
       </c>
       <c r="F31" t="n">
-        <v>0.241</v>
+        <v>0.246</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1390,13 +1390,13 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>0.119</v>
+        <v>0.115</v>
       </c>
       <c r="E32" t="n">
-        <v>0.147</v>
+        <v>0.117</v>
       </c>
       <c r="F32" t="n">
-        <v>0.128</v>
+        <v>0.115</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>0.217</v>
+        <v>0.212</v>
       </c>
       <c r="E33" t="n">
-        <v>0.243</v>
+        <v>0.235</v>
       </c>
       <c r="F33" t="n">
-        <v>0.225</v>
+        <v>0.216</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>0.11</v>
+        <v>0.107</v>
       </c>
       <c r="E34" t="n">
-        <v>0.15</v>
+        <v>0.107</v>
       </c>
       <c r="F34" t="n">
-        <v>0.118</v>
+        <v>0.107</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1480,13 +1480,13 @@
         <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>0.626</v>
+        <v>0.629</v>
       </c>
       <c r="E35" t="n">
-        <v>0.966</v>
+        <v>0.66</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.624</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1510,13 +1510,13 @@
         <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>0.126</v>
+        <v>0.124</v>
       </c>
       <c r="E36" t="n">
-        <v>0.157</v>
+        <v>0.145</v>
       </c>
       <c r="F36" t="n">
-        <v>0.134</v>
+        <v>0.129</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>0.296</v>
+        <v>0.295</v>
       </c>
       <c r="E37" t="n">
-        <v>0.336</v>
+        <v>0.359</v>
       </c>
       <c r="F37" t="n">
-        <v>0.304</v>
+        <v>0.307</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1570,13 +1570,13 @@
         <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>0.353</v>
+        <v>0.324</v>
       </c>
       <c r="E38" t="n">
-        <v>0.395</v>
+        <v>0.35</v>
       </c>
       <c r="F38" t="n">
-        <v>0.356</v>
+        <v>0.331</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1603,10 +1603,10 @@
         <v>0.195</v>
       </c>
       <c r="E39" t="n">
-        <v>0.215</v>
+        <v>0.196</v>
       </c>
       <c r="F39" t="n">
-        <v>0.199</v>
+        <v>0.194</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1630,13 +1630,13 @@
         <v>7</v>
       </c>
       <c r="D40" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="F40" t="n">
         <v>0.195</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.235</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.205</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>7</v>
       </c>
       <c r="D41" t="n">
-        <v>0.243</v>
+        <v>0.241</v>
       </c>
       <c r="E41" t="n">
-        <v>0.261</v>
+        <v>0.262</v>
       </c>
       <c r="F41" t="n">
-        <v>0.246</v>
+        <v>0.245</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>

--- a/exports/performance_run_1000.xlsx
+++ b/exports/performance_run_1000.xlsx
@@ -487,22 +487,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>0.077</v>
+        <v>0.079</v>
       </c>
       <c r="E2" t="n">
-        <v>0.095</v>
+        <v>0.146</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08</v>
+        <v>0.092</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>273</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="3">
@@ -517,22 +517,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
         <v>0.042</v>
       </c>
       <c r="E3" t="n">
-        <v>0.14</v>
+        <v>0.047</v>
       </c>
       <c r="F3" t="n">
-        <v>0.062</v>
+        <v>0.044</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>273</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="4">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E4" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.008</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.007</v>
-      </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -577,22 +577,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>0.442</v>
+        <v>0.457</v>
       </c>
       <c r="E5" t="n">
-        <v>0.468</v>
+        <v>0.512</v>
       </c>
       <c r="F5" t="n">
-        <v>0.449</v>
+        <v>0.471</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1323</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="6">
@@ -607,13 +607,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>0.068</v>
+        <v>0.063</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.121</v>
       </c>
       <c r="F6" t="n">
         <v>0.07199999999999999</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>532</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="7">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>0.216</v>
+        <v>0.211</v>
       </c>
       <c r="E7" t="n">
-        <v>0.219</v>
+        <v>0.252</v>
       </c>
       <c r="F7" t="n">
-        <v>0.216</v>
+        <v>0.221</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>707</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="8">
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>0.601</v>
+        <v>0.605</v>
       </c>
       <c r="E8" t="n">
-        <v>0.609</v>
+        <v>0.721</v>
       </c>
       <c r="F8" t="n">
-        <v>0.592</v>
+        <v>0.633</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1169</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="9">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>0.299</v>
+        <v>0.042</v>
       </c>
       <c r="E9" t="n">
-        <v>0.326</v>
+        <v>0.078</v>
       </c>
       <c r="F9" t="n">
-        <v>0.309</v>
+        <v>0.046</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1169</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="10">
@@ -727,22 +727,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>0.295</v>
+        <v>0.01</v>
       </c>
       <c r="E10" t="n">
-        <v>0.327</v>
+        <v>0.011</v>
       </c>
       <c r="F10" t="n">
-        <v>0.306</v>
+        <v>0.01</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1169</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -757,22 +757,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>0.837</v>
+        <v>0.314</v>
       </c>
       <c r="E11" t="n">
-        <v>1.679</v>
+        <v>0.412</v>
       </c>
       <c r="F11" t="n">
-        <v>0.994</v>
+        <v>0.333</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1169</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="12">
@@ -787,22 +787,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>0.313</v>
+        <v>0.319</v>
       </c>
       <c r="E12" t="n">
-        <v>0.329</v>
+        <v>0.376</v>
       </c>
       <c r="F12" t="n">
-        <v>0.314</v>
+        <v>0.33</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1169</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="13">
@@ -817,22 +817,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>0.263</v>
+        <v>0.271</v>
       </c>
       <c r="E13" t="n">
-        <v>0.345</v>
+        <v>0.352</v>
       </c>
       <c r="F13" t="n">
-        <v>0.282</v>
+        <v>0.287</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1169</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="14">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>0.21</v>
+        <v>0.219</v>
       </c>
       <c r="E14" t="n">
-        <v>0.232</v>
+        <v>0.261</v>
       </c>
       <c r="F14" t="n">
-        <v>0.214</v>
+        <v>0.229</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1169</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="15">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>0.757</v>
+        <v>0.744</v>
       </c>
       <c r="E15" t="n">
-        <v>0.822</v>
+        <v>0.839</v>
       </c>
       <c r="F15" t="n">
-        <v>0.771</v>
+        <v>0.759</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1169</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="16">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>0.697</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.754</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>0.702</v>
+        <v>0.699</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1169</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="17">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
         <v>0.371</v>
       </c>
       <c r="E17" t="n">
-        <v>0.399</v>
+        <v>0.441</v>
       </c>
       <c r="F17" t="n">
-        <v>0.378</v>
+        <v>0.397</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1169</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="18">
@@ -967,22 +967,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
         <v>0.575</v>
       </c>
       <c r="E18" t="n">
-        <v>0.671</v>
+        <v>0.756</v>
       </c>
       <c r="F18" t="n">
-        <v>0.592</v>
+        <v>0.59</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1169</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="19">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>0.308</v>
+        <v>0.267</v>
       </c>
       <c r="E19" t="n">
-        <v>0.341</v>
+        <v>0.337</v>
       </c>
       <c r="F19" t="n">
-        <v>0.321</v>
+        <v>0.285</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1169</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="20">
@@ -1027,22 +1027,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>0.307</v>
+        <v>0.279</v>
       </c>
       <c r="E20" t="n">
-        <v>0.336</v>
+        <v>0.318</v>
       </c>
       <c r="F20" t="n">
-        <v>0.316</v>
+        <v>0.289</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1169</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="21">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>0.668</v>
+        <v>0.532</v>
       </c>
       <c r="E21" t="n">
-        <v>1.69</v>
+        <v>0.669</v>
       </c>
       <c r="F21" t="n">
-        <v>0.853</v>
+        <v>0.547</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1169</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="22">
@@ -1087,22 +1087,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
         <v>0.043</v>
       </c>
       <c r="E22" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="F22" t="n">
         <v>0.044</v>
       </c>
-      <c r="F22" t="n">
-        <v>0.043</v>
-      </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>273</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="23">
@@ -1117,22 +1117,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
         <v>0.033</v>
       </c>
       <c r="E23" t="n">
-        <v>0.036</v>
+        <v>0.04</v>
       </c>
       <c r="F23" t="n">
-        <v>0.034</v>
+        <v>0.035</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>273</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="24">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
         <v>0.007</v>
       </c>
       <c r="E24" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="F24" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
@@ -1177,22 +1177,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>0.619</v>
+        <v>0.593</v>
       </c>
       <c r="E25" t="n">
-        <v>0.634</v>
+        <v>0.644</v>
       </c>
       <c r="F25" t="n">
-        <v>0.613</v>
+        <v>0.595</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>364</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="26">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>0.042</v>
+        <v>0.04</v>
       </c>
       <c r="E26" t="n">
-        <v>0.047</v>
+        <v>0.058</v>
       </c>
       <c r="F26" t="n">
-        <v>0.043</v>
+        <v>0.044</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>336</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="27">
@@ -1237,22 +1237,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>0.286</v>
+        <v>0.279</v>
       </c>
       <c r="E27" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="F27" t="n">
-        <v>0.299</v>
+        <v>0.297</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>364</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="28">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>0.316</v>
+        <v>0.315</v>
       </c>
       <c r="E28" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="F28" t="n">
-        <v>0.325</v>
+        <v>0.322</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>364</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="29">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
         <v>0.033</v>
       </c>
       <c r="E29" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="F29" t="n">
         <v>0.036</v>
       </c>
-      <c r="F29" t="n">
-        <v>0.034</v>
-      </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>280</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="30">
@@ -1327,22 +1327,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E30" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.023</v>
       </c>
       <c r="F30" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -1357,22 +1357,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>0.241</v>
+        <v>0.238</v>
       </c>
       <c r="E31" t="n">
-        <v>0.272</v>
+        <v>0.291</v>
       </c>
       <c r="F31" t="n">
-        <v>0.246</v>
+        <v>0.248</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>364</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="32">
@@ -1387,22 +1387,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>0.115</v>
+        <v>0.118</v>
       </c>
       <c r="E32" t="n">
-        <v>0.117</v>
+        <v>0.128</v>
       </c>
       <c r="F32" t="n">
-        <v>0.115</v>
+        <v>0.12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>364</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="33">
@@ -1417,22 +1417,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>0.212</v>
+        <v>0.217</v>
       </c>
       <c r="E33" t="n">
-        <v>0.235</v>
+        <v>0.251</v>
       </c>
       <c r="F33" t="n">
-        <v>0.216</v>
+        <v>0.226</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>364</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="34">
@@ -1447,22 +1447,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>0.107</v>
+        <v>0.109</v>
       </c>
       <c r="E34" t="n">
-        <v>0.107</v>
+        <v>0.114</v>
       </c>
       <c r="F34" t="n">
-        <v>0.107</v>
+        <v>0.111</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>364</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="35">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>0.629</v>
+        <v>0.603</v>
       </c>
       <c r="E35" t="n">
-        <v>0.66</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>0.624</v>
+        <v>0.611</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>364</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="36">
@@ -1507,22 +1507,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>0.124</v>
+        <v>0.12</v>
       </c>
       <c r="E36" t="n">
-        <v>0.145</v>
+        <v>0.169</v>
       </c>
       <c r="F36" t="n">
-        <v>0.129</v>
+        <v>0.131</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>364</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="37">
@@ -1537,22 +1537,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>0.295</v>
+        <v>0.291</v>
       </c>
       <c r="E37" t="n">
-        <v>0.359</v>
+        <v>0.401</v>
       </c>
       <c r="F37" t="n">
-        <v>0.307</v>
+        <v>0.309</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>364</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="38">
@@ -1567,22 +1567,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>0.324</v>
+        <v>0.335</v>
       </c>
       <c r="E38" t="n">
-        <v>0.35</v>
+        <v>0.373</v>
       </c>
       <c r="F38" t="n">
-        <v>0.331</v>
+        <v>0.341</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>364</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="39">
@@ -1597,22 +1597,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>0.195</v>
+        <v>0.203</v>
       </c>
       <c r="E39" t="n">
-        <v>0.196</v>
+        <v>0.334</v>
       </c>
       <c r="F39" t="n">
-        <v>0.194</v>
+        <v>0.223</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>364</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="40">
@@ -1627,22 +1627,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>0.194</v>
+        <v>0.228</v>
       </c>
       <c r="E40" t="n">
-        <v>0.196</v>
+        <v>0.381</v>
       </c>
       <c r="F40" t="n">
-        <v>0.195</v>
+        <v>0.248</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>364</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="41">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>0.241</v>
+        <v>0.248</v>
       </c>
       <c r="E41" t="n">
-        <v>0.262</v>
+        <v>0.294</v>
       </c>
       <c r="F41" t="n">
-        <v>0.245</v>
+        <v>0.258</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>364</v>
+        <v>1560</v>
       </c>
     </row>
   </sheetData>

--- a/exports/performance_run_1000.xlsx
+++ b/exports/performance_run_1000.xlsx
@@ -490,13 +490,13 @@
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>0.079</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.146</v>
+        <v>0.123</v>
       </c>
       <c r="F2" t="n">
-        <v>0.092</v>
+        <v>0.093</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -520,13 +520,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>0.042</v>
+        <v>0.044</v>
       </c>
       <c r="E3" t="n">
-        <v>0.047</v>
+        <v>0.054</v>
       </c>
       <c r="F3" t="n">
-        <v>0.044</v>
+        <v>0.046</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0.008</v>
       </c>
       <c r="E4" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="F4" t="n">
         <v>0.008</v>
@@ -580,13 +580,13 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>0.457</v>
+        <v>0.478</v>
       </c>
       <c r="E5" t="n">
-        <v>0.512</v>
+        <v>0.605</v>
       </c>
       <c r="F5" t="n">
-        <v>0.471</v>
+        <v>0.487</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -610,19 +610,19 @@
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>0.063</v>
+        <v>0.064</v>
       </c>
       <c r="E6" t="n">
-        <v>0.121</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.067</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2190</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="7">
@@ -640,13 +640,13 @@
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>0.211</v>
+        <v>0.217</v>
       </c>
       <c r="E7" t="n">
         <v>0.252</v>
       </c>
       <c r="F7" t="n">
-        <v>0.221</v>
+        <v>0.226</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>0.605</v>
+        <v>0.652</v>
       </c>
       <c r="E8" t="n">
-        <v>0.721</v>
+        <v>1.008</v>
       </c>
       <c r="F8" t="n">
-        <v>0.633</v>
+        <v>0.702</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -700,13 +700,13 @@
         <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>0.042</v>
+        <v>0.043</v>
       </c>
       <c r="E9" t="n">
         <v>0.078</v>
       </c>
       <c r="F9" t="n">
-        <v>0.046</v>
+        <v>0.05</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01</v>
+        <v>0.026</v>
       </c>
       <c r="E10" t="n">
-        <v>0.011</v>
+        <v>0.039</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01</v>
+        <v>0.028</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>60</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="11">
@@ -760,13 +760,13 @@
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>0.314</v>
+        <v>0.38</v>
       </c>
       <c r="E11" t="n">
-        <v>0.412</v>
+        <v>0.443</v>
       </c>
       <c r="F11" t="n">
-        <v>0.333</v>
+        <v>0.393</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>0.319</v>
+        <v>0.318</v>
       </c>
       <c r="E12" t="n">
-        <v>0.376</v>
+        <v>0.362</v>
       </c>
       <c r="F12" t="n">
-        <v>0.33</v>
+        <v>0.327</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>0.271</v>
+        <v>0.277</v>
       </c>
       <c r="E13" t="n">
-        <v>0.352</v>
+        <v>0.327</v>
       </c>
       <c r="F13" t="n">
         <v>0.287</v>
@@ -850,13 +850,13 @@
         <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="E14" t="n">
         <v>0.261</v>
       </c>
       <c r="F14" t="n">
-        <v>0.229</v>
+        <v>0.234</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>0.744</v>
+        <v>0.764</v>
       </c>
       <c r="E15" t="n">
-        <v>0.839</v>
+        <v>0.89</v>
       </c>
       <c r="F15" t="n">
-        <v>0.759</v>
+        <v>0.78</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.697</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.766</v>
       </c>
       <c r="F16" t="n">
-        <v>0.699</v>
+        <v>0.707</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>0.371</v>
+        <v>0.403</v>
       </c>
       <c r="E17" t="n">
-        <v>0.441</v>
+        <v>0.64</v>
       </c>
       <c r="F17" t="n">
-        <v>0.397</v>
+        <v>0.453</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -970,13 +970,13 @@
         <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>0.575</v>
+        <v>0.604</v>
       </c>
       <c r="E18" t="n">
-        <v>0.756</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>0.59</v>
+        <v>0.612</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>0.267</v>
+        <v>0.3</v>
       </c>
       <c r="E19" t="n">
-        <v>0.337</v>
+        <v>0.54</v>
       </c>
       <c r="F19" t="n">
-        <v>0.285</v>
+        <v>0.336</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1030,13 +1030,13 @@
         <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>0.279</v>
+        <v>0.304</v>
       </c>
       <c r="E20" t="n">
-        <v>0.318</v>
+        <v>0.421</v>
       </c>
       <c r="F20" t="n">
-        <v>0.289</v>
+        <v>0.327</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>0.532</v>
+        <v>0.653</v>
       </c>
       <c r="E21" t="n">
-        <v>0.669</v>
+        <v>0.741</v>
       </c>
       <c r="F21" t="n">
-        <v>0.547</v>
+        <v>0.664</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1090,19 +1090,19 @@
         <v>30</v>
       </c>
       <c r="D22" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="F22" t="n">
         <v>0.043</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.044</v>
-      </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1170</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="23">
@@ -1120,7 +1120,7 @@
         <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>0.033</v>
+        <v>0.034</v>
       </c>
       <c r="E23" t="n">
         <v>0.04</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1170</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="24">
@@ -1153,10 +1153,10 @@
         <v>0.007</v>
       </c>
       <c r="E24" t="n">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>0.593</v>
+        <v>0.61</v>
       </c>
       <c r="E25" t="n">
-        <v>0.644</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>0.595</v>
+        <v>0.625</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>0.04</v>
+        <v>0.039</v>
       </c>
       <c r="E26" t="n">
-        <v>0.058</v>
+        <v>0.068</v>
       </c>
       <c r="F26" t="n">
-        <v>0.044</v>
+        <v>0.046</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1500</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="27">
@@ -1240,13 +1240,13 @@
         <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>0.279</v>
+        <v>0.294</v>
       </c>
       <c r="E27" t="n">
-        <v>0.344</v>
+        <v>0.326</v>
       </c>
       <c r="F27" t="n">
-        <v>0.297</v>
+        <v>0.303</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1270,13 +1270,13 @@
         <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>0.315</v>
+        <v>0.327</v>
       </c>
       <c r="E28" t="n">
-        <v>0.343</v>
+        <v>0.386</v>
       </c>
       <c r="F28" t="n">
-        <v>0.322</v>
+        <v>0.338</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>0.033</v>
+        <v>0.034</v>
       </c>
       <c r="E29" t="n">
-        <v>0.054</v>
+        <v>0.042</v>
       </c>
       <c r="F29" t="n">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1200</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="30">
@@ -1330,19 +1330,19 @@
         <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>0.008</v>
+        <v>0.041</v>
       </c>
       <c r="E30" t="n">
-        <v>0.023</v>
+        <v>0.067</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01</v>
+        <v>0.045</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>60</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="31">
@@ -1360,13 +1360,13 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>0.238</v>
+        <v>0.313</v>
       </c>
       <c r="E31" t="n">
-        <v>0.291</v>
+        <v>0.428</v>
       </c>
       <c r="F31" t="n">
-        <v>0.248</v>
+        <v>0.329</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1390,13 +1390,13 @@
         <v>30</v>
       </c>
       <c r="D32" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="E32" t="n">
         <v>0.118</v>
       </c>
-      <c r="E32" t="n">
-        <v>0.128</v>
-      </c>
       <c r="F32" t="n">
-        <v>0.12</v>
+        <v>0.117</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>0.217</v>
+        <v>0.224</v>
       </c>
       <c r="E33" t="n">
-        <v>0.251</v>
+        <v>0.262</v>
       </c>
       <c r="F33" t="n">
-        <v>0.226</v>
+        <v>0.233</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>0.109</v>
+        <v>0.112</v>
       </c>
       <c r="E34" t="n">
-        <v>0.114</v>
+        <v>0.14</v>
       </c>
       <c r="F34" t="n">
-        <v>0.111</v>
+        <v>0.115</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1480,13 +1480,13 @@
         <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>0.603</v>
+        <v>0.623</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="F35" t="n">
-        <v>0.611</v>
+        <v>0.642</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1510,13 +1510,13 @@
         <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>0.12</v>
+        <v>0.124</v>
       </c>
       <c r="E36" t="n">
-        <v>0.169</v>
+        <v>0.214</v>
       </c>
       <c r="F36" t="n">
-        <v>0.131</v>
+        <v>0.14</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>0.291</v>
+        <v>0.31</v>
       </c>
       <c r="E37" t="n">
-        <v>0.401</v>
+        <v>0.365</v>
       </c>
       <c r="F37" t="n">
-        <v>0.309</v>
+        <v>0.322</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1570,13 +1570,13 @@
         <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>0.335</v>
+        <v>0.363</v>
       </c>
       <c r="E38" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F38" t="n">
         <v>0.373</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.341</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1600,13 +1600,13 @@
         <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>0.203</v>
+        <v>0.2</v>
       </c>
       <c r="E39" t="n">
-        <v>0.334</v>
+        <v>0.227</v>
       </c>
       <c r="F39" t="n">
-        <v>0.223</v>
+        <v>0.207</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1630,13 +1630,13 @@
         <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>0.228</v>
+        <v>0.277</v>
       </c>
       <c r="E40" t="n">
-        <v>0.381</v>
+        <v>0.388</v>
       </c>
       <c r="F40" t="n">
-        <v>0.248</v>
+        <v>0.302</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>0.248</v>
+        <v>0.307</v>
       </c>
       <c r="E41" t="n">
-        <v>0.294</v>
+        <v>0.342</v>
       </c>
       <c r="F41" t="n">
-        <v>0.258</v>
+        <v>0.318</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>

--- a/exports/performance_run_1000.xlsx
+++ b/exports/performance_run_1000.xlsx
@@ -490,13 +490,13 @@
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.074</v>
       </c>
       <c r="E2" t="n">
-        <v>0.123</v>
+        <v>0.112</v>
       </c>
       <c r="F2" t="n">
-        <v>0.093</v>
+        <v>0.083</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -520,13 +520,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.044</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.046</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E4" t="n">
-        <v>0.008</v>
+        <v>0.022</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>0.478</v>
+        <v>0.458</v>
       </c>
       <c r="E5" t="n">
-        <v>0.605</v>
+        <v>0.575</v>
       </c>
       <c r="F5" t="n">
-        <v>0.487</v>
+        <v>0.47</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -610,19 +610,19 @@
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>0.064</v>
+        <v>0.06</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.063</v>
       </c>
       <c r="F6" t="n">
-        <v>0.067</v>
+        <v>0.062</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2070</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="7">
@@ -640,13 +640,13 @@
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>0.217</v>
+        <v>0.216</v>
       </c>
       <c r="E7" t="n">
-        <v>0.252</v>
+        <v>0.246</v>
       </c>
       <c r="F7" t="n">
-        <v>0.226</v>
+        <v>0.224</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>0.652</v>
+        <v>0.585</v>
       </c>
       <c r="E8" t="n">
-        <v>1.008</v>
+        <v>0.661</v>
       </c>
       <c r="F8" t="n">
-        <v>0.702</v>
+        <v>0.591</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -700,10 +700,10 @@
         <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>0.043</v>
+        <v>0.04</v>
       </c>
       <c r="E9" t="n">
-        <v>0.078</v>
+        <v>0.118</v>
       </c>
       <c r="F9" t="n">
         <v>0.05</v>
@@ -730,13 +730,13 @@
         <v>30</v>
       </c>
       <c r="D10" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="F10" t="n">
         <v>0.026</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.028</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -760,13 +760,13 @@
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>0.38</v>
+        <v>0.304</v>
       </c>
       <c r="E11" t="n">
-        <v>0.443</v>
+        <v>0.464</v>
       </c>
       <c r="F11" t="n">
-        <v>0.393</v>
+        <v>0.327</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>0.318</v>
+        <v>0.306</v>
       </c>
       <c r="E12" t="n">
-        <v>0.362</v>
+        <v>0.34</v>
       </c>
       <c r="F12" t="n">
-        <v>0.327</v>
+        <v>0.316</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>0.277</v>
+        <v>0.269</v>
       </c>
       <c r="E13" t="n">
-        <v>0.327</v>
+        <v>0.328</v>
       </c>
       <c r="F13" t="n">
-        <v>0.287</v>
+        <v>0.284</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>0.223</v>
+        <v>0.219</v>
       </c>
       <c r="E14" t="n">
-        <v>0.261</v>
+        <v>0.391</v>
       </c>
       <c r="F14" t="n">
-        <v>0.234</v>
+        <v>0.252</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>0.764</v>
+        <v>0.76</v>
       </c>
       <c r="E15" t="n">
-        <v>0.89</v>
+        <v>0.792</v>
       </c>
       <c r="F15" t="n">
-        <v>0.78</v>
+        <v>0.758</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>0.697</v>
+        <v>0.698</v>
       </c>
       <c r="E16" t="n">
-        <v>0.766</v>
+        <v>0.731</v>
       </c>
       <c r="F16" t="n">
-        <v>0.707</v>
+        <v>0.696</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>0.403</v>
+        <v>0.374</v>
       </c>
       <c r="E17" t="n">
-        <v>0.64</v>
+        <v>0.425</v>
       </c>
       <c r="F17" t="n">
-        <v>0.453</v>
+        <v>0.384</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -970,13 +970,13 @@
         <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>0.604</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>0.612</v>
+        <v>0.575</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3</v>
+        <v>0.268</v>
       </c>
       <c r="E19" t="n">
-        <v>0.54</v>
+        <v>0.309</v>
       </c>
       <c r="F19" t="n">
-        <v>0.336</v>
+        <v>0.276</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1030,13 +1030,13 @@
         <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>0.304</v>
+        <v>0.284</v>
       </c>
       <c r="E20" t="n">
-        <v>0.421</v>
+        <v>0.318</v>
       </c>
       <c r="F20" t="n">
-        <v>0.327</v>
+        <v>0.294</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>0.653</v>
+        <v>0.528</v>
       </c>
       <c r="E21" t="n">
-        <v>0.741</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>0.664</v>
+        <v>0.524</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1093,16 +1093,16 @@
         <v>0.04</v>
       </c>
       <c r="E22" t="n">
-        <v>0.066</v>
+        <v>0.062</v>
       </c>
       <c r="F22" t="n">
-        <v>0.043</v>
+        <v>0.044</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1140</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="23">
@@ -1120,19 +1120,19 @@
         <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="E23" t="n">
-        <v>0.04</v>
+        <v>0.099</v>
       </c>
       <c r="F23" t="n">
-        <v>0.035</v>
+        <v>0.044</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1140</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="24">
@@ -1153,10 +1153,10 @@
         <v>0.007</v>
       </c>
       <c r="E24" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="F24" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>0.61</v>
+        <v>0.607</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.637</v>
       </c>
       <c r="F25" t="n">
-        <v>0.625</v>
+        <v>0.604</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>0.039</v>
+        <v>0.038</v>
       </c>
       <c r="E26" t="n">
-        <v>0.068</v>
+        <v>0.053</v>
       </c>
       <c r="F26" t="n">
-        <v>0.046</v>
+        <v>0.041</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1290</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="27">
@@ -1240,13 +1240,13 @@
         <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>0.294</v>
+        <v>0.285</v>
       </c>
       <c r="E27" t="n">
-        <v>0.326</v>
+        <v>0.313</v>
       </c>
       <c r="F27" t="n">
-        <v>0.303</v>
+        <v>0.293</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1270,13 +1270,13 @@
         <v>30</v>
       </c>
       <c r="D28" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="F28" t="n">
         <v>0.327</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.386</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.338</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>0.034</v>
+        <v>0.032</v>
       </c>
       <c r="E29" t="n">
-        <v>0.042</v>
+        <v>0.041</v>
       </c>
       <c r="F29" t="n">
         <v>0.035</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1170</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="30">
@@ -1330,19 +1330,19 @@
         <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>0.041</v>
+        <v>0.033</v>
       </c>
       <c r="E30" t="n">
-        <v>0.067</v>
+        <v>0.048</v>
       </c>
       <c r="F30" t="n">
-        <v>0.045</v>
+        <v>0.035</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1170</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="31">
@@ -1360,13 +1360,13 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>0.313</v>
+        <v>0.233</v>
       </c>
       <c r="E31" t="n">
-        <v>0.428</v>
+        <v>0.266</v>
       </c>
       <c r="F31" t="n">
-        <v>0.329</v>
+        <v>0.242</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1390,13 +1390,13 @@
         <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>0.117</v>
+        <v>0.114</v>
       </c>
       <c r="E32" t="n">
-        <v>0.118</v>
+        <v>0.141</v>
       </c>
       <c r="F32" t="n">
-        <v>0.117</v>
+        <v>0.122</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>0.224</v>
+        <v>0.212</v>
       </c>
       <c r="E33" t="n">
-        <v>0.262</v>
+        <v>0.253</v>
       </c>
       <c r="F33" t="n">
-        <v>0.233</v>
+        <v>0.228</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>30</v>
       </c>
       <c r="D34" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="F34" t="n">
         <v>0.112</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.115</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1480,13 +1480,13 @@
         <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>0.623</v>
+        <v>0.621</v>
       </c>
       <c r="E35" t="n">
-        <v>0.79</v>
+        <v>0.645</v>
       </c>
       <c r="F35" t="n">
-        <v>0.642</v>
+        <v>0.619</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1510,13 +1510,13 @@
         <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>0.124</v>
+        <v>0.123</v>
       </c>
       <c r="E36" t="n">
-        <v>0.214</v>
+        <v>0.149</v>
       </c>
       <c r="F36" t="n">
-        <v>0.14</v>
+        <v>0.127</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>0.31</v>
+        <v>0.296</v>
       </c>
       <c r="E37" t="n">
-        <v>0.365</v>
+        <v>0.38</v>
       </c>
       <c r="F37" t="n">
-        <v>0.322</v>
+        <v>0.312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1570,13 +1570,13 @@
         <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>0.363</v>
+        <v>0.316</v>
       </c>
       <c r="E38" t="n">
-        <v>0.475</v>
+        <v>0.416</v>
       </c>
       <c r="F38" t="n">
-        <v>0.373</v>
+        <v>0.332</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1600,13 +1600,13 @@
         <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2</v>
+        <v>0.196</v>
       </c>
       <c r="E39" t="n">
-        <v>0.227</v>
+        <v>0.244</v>
       </c>
       <c r="F39" t="n">
-        <v>0.207</v>
+        <v>0.204</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1630,13 +1630,13 @@
         <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>0.277</v>
+        <v>0.227</v>
       </c>
       <c r="E40" t="n">
-        <v>0.388</v>
+        <v>0.255</v>
       </c>
       <c r="F40" t="n">
-        <v>0.302</v>
+        <v>0.233</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>0.307</v>
+        <v>0.242</v>
       </c>
       <c r="E41" t="n">
-        <v>0.342</v>
+        <v>0.28</v>
       </c>
       <c r="F41" t="n">
-        <v>0.318</v>
+        <v>0.252</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>

--- a/exports/performance_run_1000.xlsx
+++ b/exports/performance_run_1000.xlsx
@@ -490,13 +490,13 @@
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>0.074</v>
+        <v>0.079</v>
       </c>
       <c r="E2" t="n">
-        <v>0.112</v>
+        <v>0.116</v>
       </c>
       <c r="F2" t="n">
-        <v>0.083</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -520,13 +520,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>0.041</v>
+        <v>0.042</v>
       </c>
       <c r="E3" t="n">
-        <v>0.062</v>
+        <v>0.045</v>
       </c>
       <c r="F3" t="n">
-        <v>0.044</v>
+        <v>0.045</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E4" t="n">
-        <v>0.022</v>
+        <v>0.008</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>0.458</v>
+        <v>0.476</v>
       </c>
       <c r="E5" t="n">
-        <v>0.575</v>
+        <v>0.502</v>
       </c>
       <c r="F5" t="n">
-        <v>0.47</v>
+        <v>0.472</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -610,19 +610,19 @@
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06</v>
+        <v>0.062</v>
       </c>
       <c r="E6" t="n">
-        <v>0.063</v>
+        <v>0.09</v>
       </c>
       <c r="F6" t="n">
-        <v>0.062</v>
+        <v>0.066</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2040</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="7">
@@ -640,13 +640,13 @@
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>0.216</v>
+        <v>0.217</v>
       </c>
       <c r="E7" t="n">
-        <v>0.246</v>
+        <v>0.267</v>
       </c>
       <c r="F7" t="n">
-        <v>0.224</v>
+        <v>0.228</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>0.585</v>
+        <v>0.599</v>
       </c>
       <c r="E8" t="n">
-        <v>0.661</v>
+        <v>0.665</v>
       </c>
       <c r="F8" t="n">
-        <v>0.591</v>
+        <v>0.599</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -700,13 +700,13 @@
         <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04</v>
+        <v>0.041</v>
       </c>
       <c r="E9" t="n">
-        <v>0.118</v>
+        <v>0.061</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>0.043</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0.025</v>
       </c>
       <c r="E10" t="n">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="F10" t="n">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -760,13 +760,13 @@
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>0.304</v>
+        <v>0.29</v>
       </c>
       <c r="E11" t="n">
-        <v>0.464</v>
+        <v>0.332</v>
       </c>
       <c r="F11" t="n">
-        <v>0.327</v>
+        <v>0.305</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -790,10 +790,10 @@
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>0.306</v>
+        <v>0.309</v>
       </c>
       <c r="E12" t="n">
-        <v>0.34</v>
+        <v>0.336</v>
       </c>
       <c r="F12" t="n">
         <v>0.316</v>
@@ -820,10 +820,10 @@
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>0.269</v>
+        <v>0.271</v>
       </c>
       <c r="E13" t="n">
-        <v>0.328</v>
+        <v>0.325</v>
       </c>
       <c r="F13" t="n">
         <v>0.284</v>
@@ -850,13 +850,13 @@
         <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>0.219</v>
+        <v>0.216</v>
       </c>
       <c r="E14" t="n">
-        <v>0.391</v>
+        <v>0.245</v>
       </c>
       <c r="F14" t="n">
-        <v>0.252</v>
+        <v>0.227</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>0.76</v>
+        <v>0.772</v>
       </c>
       <c r="E15" t="n">
-        <v>0.792</v>
+        <v>0.844</v>
       </c>
       <c r="F15" t="n">
-        <v>0.758</v>
+        <v>0.776</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>0.698</v>
+        <v>0.7</v>
       </c>
       <c r="E16" t="n">
-        <v>0.731</v>
+        <v>0.73</v>
       </c>
       <c r="F16" t="n">
-        <v>0.696</v>
+        <v>0.699</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>0.374</v>
+        <v>0.398</v>
       </c>
       <c r="E17" t="n">
-        <v>0.425</v>
+        <v>0.476</v>
       </c>
       <c r="F17" t="n">
-        <v>0.384</v>
+        <v>0.405</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -970,13 +970,13 @@
         <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.574</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.628</v>
       </c>
       <c r="F18" t="n">
-        <v>0.575</v>
+        <v>0.573</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>0.268</v>
       </c>
       <c r="E19" t="n">
-        <v>0.309</v>
+        <v>0.318</v>
       </c>
       <c r="F19" t="n">
-        <v>0.276</v>
+        <v>0.282</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1030,13 +1030,13 @@
         <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>0.284</v>
+        <v>0.282</v>
       </c>
       <c r="E20" t="n">
-        <v>0.318</v>
+        <v>0.376</v>
       </c>
       <c r="F20" t="n">
-        <v>0.294</v>
+        <v>0.3</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>0.528</v>
+        <v>0.515</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.582</v>
       </c>
       <c r="F21" t="n">
-        <v>0.524</v>
+        <v>0.516</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1093,10 +1093,10 @@
         <v>0.04</v>
       </c>
       <c r="E22" t="n">
-        <v>0.062</v>
+        <v>0.049</v>
       </c>
       <c r="F22" t="n">
-        <v>0.044</v>
+        <v>0.043</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>0.033</v>
+        <v>0.034</v>
       </c>
       <c r="E23" t="n">
-        <v>0.099</v>
+        <v>0.041</v>
       </c>
       <c r="F23" t="n">
-        <v>0.044</v>
+        <v>0.035</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0.007</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="F24" t="n">
         <v>0.008</v>
@@ -1180,13 +1180,13 @@
         <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>0.607</v>
+        <v>0.606</v>
       </c>
       <c r="E25" t="n">
-        <v>0.637</v>
+        <v>0.638</v>
       </c>
       <c r="F25" t="n">
-        <v>0.604</v>
+        <v>0.603</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>0.038</v>
+        <v>0.04</v>
       </c>
       <c r="E26" t="n">
-        <v>0.053</v>
+        <v>0.06</v>
       </c>
       <c r="F26" t="n">
-        <v>0.041</v>
+        <v>0.043</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1320</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="27">
@@ -1240,13 +1240,13 @@
         <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>0.285</v>
+        <v>0.284</v>
       </c>
       <c r="E27" t="n">
-        <v>0.313</v>
+        <v>0.338</v>
       </c>
       <c r="F27" t="n">
-        <v>0.293</v>
+        <v>0.298</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1270,13 +1270,13 @@
         <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>0.307</v>
+        <v>0.298</v>
       </c>
       <c r="E28" t="n">
-        <v>0.414</v>
+        <v>0.326</v>
       </c>
       <c r="F28" t="n">
-        <v>0.327</v>
+        <v>0.306</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="E29" t="n">
-        <v>0.041</v>
+        <v>0.034</v>
       </c>
       <c r="F29" t="n">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0.033</v>
       </c>
       <c r="E30" t="n">
-        <v>0.048</v>
+        <v>0.035</v>
       </c>
       <c r="F30" t="n">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1360,13 +1360,13 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>0.233</v>
+        <v>0.226</v>
       </c>
       <c r="E31" t="n">
-        <v>0.266</v>
+        <v>0.254</v>
       </c>
       <c r="F31" t="n">
-        <v>0.242</v>
+        <v>0.231</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1390,13 +1390,13 @@
         <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>0.114</v>
+        <v>0.113</v>
       </c>
       <c r="E32" t="n">
-        <v>0.141</v>
+        <v>0.14</v>
       </c>
       <c r="F32" t="n">
-        <v>0.122</v>
+        <v>0.117</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>0.212</v>
+        <v>0.216</v>
       </c>
       <c r="E33" t="n">
-        <v>0.253</v>
+        <v>0.249</v>
       </c>
       <c r="F33" t="n">
-        <v>0.228</v>
+        <v>0.226</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>0.107</v>
+        <v>0.109</v>
       </c>
       <c r="E34" t="n">
-        <v>0.143</v>
+        <v>0.17</v>
       </c>
       <c r="F34" t="n">
-        <v>0.112</v>
+        <v>0.118</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1480,13 +1480,13 @@
         <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>0.621</v>
+        <v>0.619</v>
       </c>
       <c r="E35" t="n">
-        <v>0.645</v>
+        <v>0.7</v>
       </c>
       <c r="F35" t="n">
-        <v>0.619</v>
+        <v>0.625</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1510,13 +1510,13 @@
         <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>0.123</v>
+        <v>0.124</v>
       </c>
       <c r="E36" t="n">
-        <v>0.149</v>
+        <v>0.164</v>
       </c>
       <c r="F36" t="n">
-        <v>0.127</v>
+        <v>0.131</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>0.296</v>
+        <v>0.295</v>
       </c>
       <c r="E37" t="n">
-        <v>0.38</v>
+        <v>0.326</v>
       </c>
       <c r="F37" t="n">
-        <v>0.312</v>
+        <v>0.305</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0.316</v>
       </c>
       <c r="E38" t="n">
-        <v>0.416</v>
+        <v>0.354</v>
       </c>
       <c r="F38" t="n">
-        <v>0.332</v>
+        <v>0.325</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1600,13 +1600,13 @@
         <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>0.196</v>
+        <v>0.195</v>
       </c>
       <c r="E39" t="n">
-        <v>0.244</v>
+        <v>0.222</v>
       </c>
       <c r="F39" t="n">
-        <v>0.204</v>
+        <v>0.201</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1630,13 +1630,13 @@
         <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>0.227</v>
+        <v>0.223</v>
       </c>
       <c r="E40" t="n">
-        <v>0.255</v>
+        <v>0.305</v>
       </c>
       <c r="F40" t="n">
-        <v>0.233</v>
+        <v>0.242</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>0.242</v>
+        <v>0.236</v>
       </c>
       <c r="E41" t="n">
-        <v>0.28</v>
+        <v>0.286</v>
       </c>
       <c r="F41" t="n">
-        <v>0.252</v>
+        <v>0.249</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
